--- a/Data Files/TestData/NexCare/Master Data/Data Customer/dataCustomer - add.xlsx
+++ b/Data Files/TestData/NexCare/Master Data/Data Customer/dataCustomer - add.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7695"/>
+    <workbookView windowWidth="19635" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="DataCustomer" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="70">
   <si>
     <t>TD</t>
   </si>
@@ -49,6 +50,12 @@
     <t>status</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
     <t>TDG220601</t>
   </si>
   <si>
@@ -76,10 +83,16 @@
     <t>Aktif</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>Berhasil mengupdate data customer!</t>
+  </si>
+  <si>
     <t>TDG220602</t>
   </si>
   <si>
-    <t>1613724333333</t>
+    <t>1613724333334</t>
   </si>
   <si>
     <t>Katalon00002</t>
@@ -91,7 +104,7 @@
     <t>TDG220603</t>
   </si>
   <si>
-    <t>1613723333333</t>
+    <t>1613724323335</t>
   </si>
   <si>
     <t>Katalon00003</t>
@@ -106,7 +119,7 @@
     <t>Pt Rukun Mitra Sejati Blitar</t>
   </si>
   <si>
-    <t>1613733333333</t>
+    <t>1613724323336</t>
   </si>
   <si>
     <t>Katalon00004</t>
@@ -118,7 +131,7 @@
     <t>TDG220605</t>
   </si>
   <si>
-    <t>1613333333333</t>
+    <t>1613724333337</t>
   </si>
   <si>
     <t>Katalon00005</t>
@@ -130,13 +143,88 @@
     <t>TDG220606</t>
   </si>
   <si>
+    <t>1613724323338</t>
+  </si>
+  <si>
+    <t>Katalon00006</t>
+  </si>
+  <si>
+    <t>DistCode06</t>
+  </si>
+  <si>
+    <t>TDG220607</t>
+  </si>
+  <si>
+    <t>Belum Ada</t>
+  </si>
+  <si>
+    <t>1613724323339</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>Data principal_id 0 tidak diketahui</t>
+  </si>
+  <si>
+    <t>TDG220608</t>
+  </si>
+  <si>
+    <t>NS6143060002877NS61430600028779</t>
+  </si>
+  <si>
+    <t>1613724333331</t>
+  </si>
+  <si>
+    <t>Jumlah karakter pada ns_code harus lebih kecil dari 30</t>
+  </si>
+  <si>
+    <t>TDG220609</t>
+  </si>
+  <si>
+    <t>Jumlah karakter pada branch_id harus lebih kecil dari 30</t>
+  </si>
+  <si>
+    <t>TDG220610</t>
+  </si>
+  <si>
+    <t>1633333333332</t>
+  </si>
+  <si>
+    <t>Jumlah karakter pada distributor_code harus lebih kecil dari 30</t>
+  </si>
+  <si>
+    <t>TDG220611</t>
+  </si>
+  <si>
+    <t>1633333333313</t>
+  </si>
+  <si>
+    <t>Kolom license belum diisi. Silakan cek kembali</t>
+  </si>
+  <si>
+    <t>TDG220612</t>
+  </si>
+  <si>
+    <t>1633333333323</t>
+  </si>
+  <si>
+    <t>adasavsaasdasdasdjaslkdjsakdjajdaiwdakdskaljdaklsndasmnzx,mvbdhfawiojdaskldascbsmczx,mcnzx,mcndhakdjadasjkdhasjkdhajkdhqioweujsdljaldkjasdnnczx,nzxmcnmxcnxmcnz,cnxz,cnz,wjwqeuqieuopfiehjgbdmfsmnkwl2313dskfslkdjakldjsakaadjwi23jdksfjsklfjsklfjdsfjlskejfekslf</t>
+  </si>
+  <si>
+    <t>Jumlah karakter pada client_id harus lebih kecil dari 256</t>
+  </si>
+  <si>
     <t>1633333333333</t>
   </si>
   <si>
-    <t>Katalon00006</t>
-  </si>
-  <si>
-    <t>DistCode06</t>
+    <t>TDG220613</t>
+  </si>
+  <si>
+    <t>TDG220614</t>
+  </si>
+  <si>
+    <t>NS6143060002876</t>
   </si>
 </sst>
 </file>
@@ -144,12 +232,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,17 +253,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -194,6 +273,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -202,50 +351,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,48 +374,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,19 +410,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,109 +548,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,13 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,25 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,30 +601,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -554,18 +623,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,6 +667,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -608,162 +690,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
@@ -771,52 +867,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1087,13 +1183,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="7.28571428571429" customWidth="1"/>
@@ -1106,9 +1202,10 @@
     <col min="9" max="9" width="13.7142857142857" customWidth="1"/>
     <col min="10" max="10" width="19.2857142857143" customWidth="1"/>
     <col min="11" max="11" width="6.85714285714286" customWidth="1"/>
+    <col min="13" max="13" width="62.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1142,13 +1239,19 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1157,33 +1260,39 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1192,33 +1301,39 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1227,33 +1342,39 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1262,33 +1383,39 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1297,33 +1424,39 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -1332,25 +1465,628 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="10.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="7.28571428571429" customWidth="1"/>
+    <col min="3" max="3" width="17.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="13.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="32.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="15.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="17.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="15.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="13.7142857142857" customWidth="1"/>
+    <col min="10" max="10" width="19.2857142857143" customWidth="1"/>
+    <col min="11" max="11" width="6.85714285714286" customWidth="1"/>
+    <col min="13" max="13" width="39.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
       <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/TestData/NexCare/Master Data/Data Customer/dataCustomer - add.xlsx
+++ b/Data Files/TestData/NexCare/Master Data/Data Customer/dataCustomer - add.xlsx
@@ -1185,8 +1185,8 @@
   <sheetPr/>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>

--- a/Data Files/TestData/NexCare/Master Data/Data Customer/dataCustomer - add.xlsx
+++ b/Data Files/TestData/NexCare/Master Data/Data Customer/dataCustomer - add.xlsx
@@ -1186,7 +1186,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
